--- a/model pretnji.xlsx
+++ b/model pretnji.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\XML\BSEP-XWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\BSEP-XWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BD3C43-7D50-49A4-8F9E-5EA5F29C1672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="735" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="735" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Osnovne informacije" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="244">
   <si>
     <t>1.0</t>
   </si>
@@ -815,11 +814,17 @@
   <si>
     <t>Kredencijali korisnika su ugrozeni a napad na prava pristupa admina moze biti kobno po funkcionisanje celokupnog sistema.</t>
   </si>
+  <si>
+    <t>Prijetnje Media-Service</t>
+  </si>
+  <si>
+    <t>Rizici za Media-Service</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1223,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1355,6 +1360,12 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1373,6 +1384,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,26 +1417,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1412,36 +1453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1470,71 +1481,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1553,11 +1564,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1597,7 +1605,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1655,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1705,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1755,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1805,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11BCD97-7B5F-4235-9BCB-CA397D1298FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C11BCD97-7B5F-4235-9BCB-CA397D1298FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2119,10 +2127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2133,38 +2141,38 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
     </row>
     <row r="8" spans="1:2" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="47" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2179,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2195,11 +2203,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -2216,10 +2224,10 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
@@ -2291,10 +2299,10 @@
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -2322,10 +2330,10 @@
       <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -2361,11 +2369,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
     </row>
     <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -2401,113 +2409,113 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="59"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="60"/>
     </row>
     <row r="24" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>2</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="60"/>
     </row>
     <row r="26" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="55"/>
     </row>
     <row r="27" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="57"/>
     </row>
     <row r="28" spans="1:3" ht="319.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="55"/>
     </row>
     <row r="29" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="55"/>
     </row>
     <row r="30" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="61"/>
+      <c r="C30" s="55"/>
     </row>
     <row r="31" spans="1:3" ht="50.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="64.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2515,10 +2523,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
@@ -2528,1121 +2536,1121 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
       <c r="O1" s="16"/>
     </row>
     <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="80"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="83"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="83"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="83"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="83"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="83"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="83"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="83"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="83"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="83"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="83"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="83"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="83"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="83"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="83"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="83"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="83"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="83"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="83"/>
     </row>
     <row r="44" spans="2:14" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="82"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
     </row>
     <row r="46" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="80"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="81"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="83"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="81"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="83"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="83"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="83"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="81"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="83"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="79"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="81"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="83"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="83"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="79"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="81"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="83"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="79"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="81"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="83"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="81"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="83"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="79"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="81"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="81"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="83"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="81"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="83"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="79"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="81"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="83"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="79"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="83"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="79"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="81"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="83"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="79"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="80"/>
-      <c r="N63" s="81"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="83"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="79"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="81"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="83"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="79"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="81"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="83"/>
     </row>
     <row r="66" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="79"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="81"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="83"/>
     </row>
     <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="79"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="81"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="83"/>
     </row>
     <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="79"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="81"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="83"/>
     </row>
     <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="79"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="81"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="82"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="83"/>
     </row>
     <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="79"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="80"/>
-      <c r="N70" s="81"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="83"/>
     </row>
     <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="79"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="80"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="81"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
+      <c r="J71" s="82"/>
+      <c r="K71" s="82"/>
+      <c r="L71" s="82"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="83"/>
     </row>
     <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="79"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
-      <c r="M72" s="80"/>
-      <c r="N72" s="81"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="82"/>
+      <c r="L72" s="82"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="83"/>
     </row>
     <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="81"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="82"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="83"/>
     </row>
     <row r="74" spans="2:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="84"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="86"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="66" t="s">
@@ -4537,10 +4545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
@@ -4553,12 +4561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -4595,10 +4603,10 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="108"/>
     </row>
     <row r="5" spans="1:11" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
@@ -4607,10 +4615,10 @@
       <c r="B5" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
@@ -4619,10 +4627,10 @@
       <c r="B6" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="86"/>
+      <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:11" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
@@ -4631,10 +4639,10 @@
       <c r="B7" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="86"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -4677,22 +4685,22 @@
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -4701,28 +4709,28 @@
       <c r="B13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="86"/>
+      <c r="D13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="104"/>
     </row>
     <row r="15" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -4777,10 +4785,10 @@
       <c r="B19" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="87"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
@@ -4829,10 +4837,10 @@
       <c r="B23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
@@ -4841,10 +4849,10 @@
       <c r="B24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="86"/>
+      <c r="D24" s="87"/>
     </row>
     <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
@@ -4853,10 +4861,10 @@
       <c r="B25" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
@@ -4899,44 +4907,44 @@
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="106"/>
+      <c r="D29" s="101"/>
     </row>
     <row r="30" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="101" t="s">
+      <c r="A30" s="89"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="D30" s="86"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="101"/>
+      <c r="D31" s="93"/>
     </row>
     <row r="32" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="86" t="s">
+      <c r="A32" s="89"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="86"/>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
@@ -4979,22 +4987,22 @@
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="102"/>
+      <c r="D36" s="97"/>
     </row>
     <row r="37" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="97"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="99"/>
     </row>
     <row r="38" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
@@ -5003,10 +5011,10 @@
       <c r="B38" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="86"/>
+      <c r="D38" s="87"/>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
@@ -5015,13 +5023,29 @@
       <c r="B39" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="86"/>
+      <c r="D39" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A29:A30"/>
@@ -5035,22 +5059,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5058,10 +5066,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5077,15 +5085,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -5397,7 +5405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -5413,12 +5421,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -5891,7 +5899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5907,15 +5915,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -6087,11 +6095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A46885-FBBF-4C8B-BDA7-DD32D73F13F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6104,12 +6112,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="58"/>
+      <c r="A1" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -6453,11 +6461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFDE282-5146-408A-8212-C9B4F8724306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6471,15 +6479,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="A1" s="115" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -6508,22 +6516,22 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="48" t="s">
         <v>160</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="48" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6531,22 +6539,22 @@
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="48" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="48" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6557,10 +6565,10 @@
       <c r="B5" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="48" t="s">
         <v>160</v>
       </c>
       <c r="E5" s="35" t="s">
@@ -6577,22 +6585,22 @@
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="48" t="s">
         <v>160</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="48" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6603,10 +6611,10 @@
       <c r="B7" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="48" t="s">
         <v>160</v>
       </c>
       <c r="E7" s="35" t="s">
